--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1240511.088668273</v>
+        <v>1234789.476700386</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>74.37719913627926</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>129.1901879642572</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.14583500121414</v>
+        <v>4.841729711032396</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>144.3277311286221</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>214.6745513216756</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>192.5627265154902</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>9.702759483544108</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>71.08259300547778</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.52687838733141</v>
       </c>
       <c r="H10" t="n">
-        <v>44.85034555736554</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>101.320827881145</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>150.2062474346973</v>
+        <v>159.7836621715531</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.4854078416286</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>180.5688758938972</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>85.47654389282556</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>71.6703719699175</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>234.971850626718</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>203.1977700471494</v>
+        <v>71.98153210089467</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2967,10 +2967,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>152.4505929532481</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>186.2120483577854</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.0955237083904</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>70.82764119510642</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>77.31354443380475</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>70.82764119510642</v>
       </c>
       <c r="F40" t="n">
-        <v>111.9187566128672</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>99.1393175095014</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>127.3165365479899</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.715370239897</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.752853299486</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D2" t="n">
-        <v>1111.487154692735</v>
+        <v>191.3836219274035</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>191.3836219274035</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>184.4381211782</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.715370239897</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>541.5898833044448</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>541.5898833044448</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>541.5898833044448</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>429.1610646658629</v>
+        <v>723.2383481346845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1456.618771496444</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1098.353072889693</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1098.353072889693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2480.306109885217</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.166777909405</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>533.621179645333</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.621179645333</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.881273373638</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>846.9187564332267</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D8" t="n">
-        <v>488.6530578264762</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>863.9242055694012</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>452.9383007797937</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.48111343776</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>246.1363086691491</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>246.1363086691491</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>246.1363086691491</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>99.24636117123873</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>99.24636117123873</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5032,46 +5032,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1797.117834600128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.649739272053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330835</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>492.7083461157131</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>492.7083461157131</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>492.7083461157131</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>344.79525253332</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>197.9053050354096</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.513008862232</v>
+        <v>1667.240599230348</v>
       </c>
       <c r="V13" t="n">
-        <v>1866.513008862232</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>895.1493900894829</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>674.3568109459528</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>1923.729615463053</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>2903.481887689699</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,16 +5375,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U16" t="n">
-        <v>1674.827124689058</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1674.827124689058</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W16" t="n">
-        <v>1674.827124689058</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2782.232616025903</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>3329.011433084685</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.8067350374723</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1873.024872325281</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1681.338988152107</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1681.338988152107</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1681.338988152107</v>
+        <v>1552.184046741</v>
       </c>
       <c r="V19" t="n">
-        <v>1426.65449994622</v>
+        <v>1297.499558535113</v>
       </c>
       <c r="W19" t="n">
-        <v>1137.23732990926</v>
+        <v>1008.082388498152</v>
       </c>
       <c r="X19" t="n">
-        <v>909.2477790112422</v>
+        <v>780.0928376001349</v>
       </c>
       <c r="Y19" t="n">
-        <v>688.4551998677121</v>
+        <v>559.3002584566048</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5749,34 +5749,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,16 +5861,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3531.125154183957</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C22" t="n">
-        <v>3362.18897125605</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D22" t="n">
-        <v>3212.072331843714</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E22" t="n">
-        <v>3064.159238261321</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U22" t="n">
-        <v>4705.657407298591</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V22" t="n">
-        <v>4450.972919092705</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="W22" t="n">
-        <v>4161.555749055744</v>
+        <v>1412.241807861855</v>
       </c>
       <c r="X22" t="n">
-        <v>3933.566198157727</v>
+        <v>1184.252256963838</v>
       </c>
       <c r="Y22" t="n">
-        <v>3712.773619014197</v>
+        <v>963.459677820308</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>1770.231306037953</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4168978689405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U25" t="n">
-        <v>1883.949150983575</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V25" t="n">
-        <v>1629.264662777688</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W25" t="n">
-        <v>1339.847492740728</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>1111.85794184271</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>891.0653626991802</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6223,49 +6223,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>818.2062848686767</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1682.725100522031</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1956.343466104704</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W28" t="n">
-        <v>1751.093193329805</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N29" t="n">
-        <v>3316.966490094645</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6651,22 +6651,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1580.586352741656</v>
       </c>
       <c r="V31" t="n">
-        <v>1956.343466104704</v>
+        <v>1325.901864535769</v>
       </c>
       <c r="W31" t="n">
-        <v>1751.093193329805</v>
+        <v>1325.901864535769</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>1097.912313637752</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>877.1197344942216</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
         <v>1482.778354750621</v>
@@ -6712,16 +6712,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807097</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468568</v>
@@ -6779,19 +6779,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,7 +6809,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6818,13 +6818,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3086.205473691319</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004075</v>
+        <v>1768.250487965527</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.768765573601</v>
+        <v>1546.483872535053</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699244</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493358</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W34" t="n">
-        <v>3441.564240456397</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X34" t="n">
-        <v>3213.57468955838</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y34" t="n">
-        <v>3086.205473691319</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6955,34 +6955,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>414.613856788637</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C37" t="n">
-        <v>245.6776738607301</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1878.248976777628</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.146109903272</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1334.461621697385</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1045.044451660424</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>817.0549007624069</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>596.2623216188767</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,40 +7162,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074197</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.259539097266</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075806</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3441.564240456397</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C40" t="n">
-        <v>3441.564240456397</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D40" t="n">
-        <v>3441.564240456397</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E40" t="n">
-        <v>3441.564240456397</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F40" t="n">
-        <v>3328.514991352491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699244</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493358</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>3441.564240456397</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>3441.564240456397</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>3441.564240456397</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7417,19 +7417,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1732.058578925876</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2265.590483597801</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2812.369300656583</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.662598458018</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7602,19 +7602,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>1956.343466104704</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>1751.093193329805</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>1523.103642431788</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>1302.311063288258</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7727,19 +7727,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3213.57468955838</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C46" t="n">
-        <v>3213.57468955838</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>3213.57468955838</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>3213.57468955838</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>3213.57468955838</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>3045.871852933099</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>4274.768765573601</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>3985.665898699244</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V46" t="n">
-        <v>3730.981410493358</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W46" t="n">
-        <v>3441.564240456397</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X46" t="n">
-        <v>3213.57468955838</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y46" t="n">
-        <v>3213.57468955838</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,25 +8695,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>241.9338129178253</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>344.7025836476832</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>344.7025836476846</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>76.45227440777273</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9175,10 +9175,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>246.454569480844</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
-        <v>315.167921710931</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>353.7642348290852</v>
+        <v>102.8529310510287</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>201.9664098701115</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>123.4719563470478</v>
       </c>
       <c r="O29" t="n">
-        <v>258.6211785616921</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>67.5366377670415</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>67.53663776704468</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2173930448433</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>64.70498037788319</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,13 +23472,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>75.50340795433985</v>
+        <v>65.92599321748409</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.44674482841873</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>105.6429623117157</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>94.35543628911174</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24183,7 +24183,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>214.5414662356954</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>51.55114770987302</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24657,13 +24657,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>83.32522828944164</v>
+        <v>214.5414662356963</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>133.7612452523648</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.556976973656532</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>92.48912964370437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>75.60632145146275</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>142.2354048423645</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>75.60632145146275</v>
       </c>
       <c r="F40" t="n">
-        <v>33.50229141006403</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>68.10750358912644</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>17.43847836633093</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297243</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="16">
@@ -26328,7 +26328,7 @@
         <v>456644.0549200308</v>
       </c>
       <c r="G2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.0549200306</v>
       </c>
       <c r="H2" t="n">
         <v>456644.0549200309</v>
@@ -26340,16 +26340,16 @@
         <v>456644.0549200308</v>
       </c>
       <c r="K2" t="n">
+        <v>456644.0549200308</v>
+      </c>
+      <c r="L2" t="n">
         <v>456644.0549200309</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>456644.0549200308</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>456644.0549200309</v>
-      </c>
-      <c r="N2" t="n">
-        <v>456644.0549200308</v>
       </c>
       <c r="O2" t="n">
         <v>456644.0549200309</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.413993407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,37 +26423,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="K4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="H4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.7236749938</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.7236749938</v>
-      </c>
       <c r="L4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499382</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26496,16 +26496,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401792.4455337224</v>
+        <v>-401792.4455337225</v>
       </c>
       <c r="C6" t="n">
         <v>188175.433680822</v>
       </c>
       <c r="D6" t="n">
-        <v>188175.433680822</v>
+        <v>188175.4336808219</v>
       </c>
       <c r="E6" t="n">
-        <v>-392207.6010020832</v>
+        <v>-392879.5559043415</v>
       </c>
       <c r="F6" t="n">
-        <v>335169.8129913233</v>
+        <v>334497.8580890657</v>
       </c>
       <c r="G6" t="n">
-        <v>335169.8129913235</v>
+        <v>334497.8580890651</v>
       </c>
       <c r="H6" t="n">
-        <v>335169.8129913234</v>
+        <v>334497.8580890655</v>
       </c>
       <c r="I6" t="n">
-        <v>335169.8129913233</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="J6" t="n">
-        <v>158746.5937987304</v>
+        <v>158074.6388964724</v>
       </c>
       <c r="K6" t="n">
-        <v>335169.8129913235</v>
+        <v>334497.8580890652</v>
       </c>
       <c r="L6" t="n">
-        <v>335169.8129913232</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="M6" t="n">
-        <v>205527.4981523789</v>
+        <v>204855.5432501206</v>
       </c>
       <c r="N6" t="n">
-        <v>335169.8129913235</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="O6" t="n">
-        <v>335169.8129913231</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="P6" t="n">
-        <v>335169.8129913233</v>
+        <v>334497.8580890654</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26767,7 +26767,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.033036376212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,10 +26986,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>307.5531709359825</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>284.5939820565378</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>177.4388183508806</v>
+        <v>213.7429236410624</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>262.5483146130894</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>155.0565493567935</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>19.58281243452868</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>372.2276105887177</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>342.7015770153172</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="H10" t="n">
-        <v>111.3205432844296</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987485</v>
@@ -34000,10 +34000,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35254,7 +35254,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>697.5239273101574</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605947</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779111</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>584.5052752959919</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>754.5075703690632</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>713.9299079303029</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>906.0660702419967</v>
+        <v>655.1547664639399</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>539.157696425512</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>675.7737917599593</v>
       </c>
       <c r="O29" t="n">
-        <v>766.6741794499112</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>575.5896386552608</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427823</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230589</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248953</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>575.5896386552636</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152071</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.233896612727</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>631.8075074371754</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37794,13 +37794,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1234789.476700386</v>
+        <v>1238194.967824836</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>152.1157524910533</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>129.1901879642572</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.841729711032396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>144.3277311286221</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.7806877295493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571568</v>
       </c>
       <c r="G8" t="n">
-        <v>71.08259300547778</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.52687838733141</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>101.320827881145</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>4.417692757873287</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>237.2715208964449</v>
       </c>
       <c r="X16" t="n">
-        <v>159.7836621715531</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.6249412521985</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>180.5688758938972</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.47654389282556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>234.971850626718</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>36.41670903610036</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>71.98153210089467</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.87187436015466</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>152.4505929532481</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>186.2120483577854</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="E37" t="n">
-        <v>70.82764119510642</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>70.82764119510642</v>
+        <v>6.38006817584762</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1393175095014</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.13931750950182</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>115.4843035626067</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.649320534154</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C2" t="n">
-        <v>549.649320534154</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="D2" t="n">
-        <v>191.3836219274035</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="E2" t="n">
-        <v>191.3836219274035</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>184.4381211782</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.5898833044448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>541.5898833044448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>541.5898833044448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>723.2383481346845</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1825.581288436855</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1456.618771496444</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1098.353072889693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1098.353072889693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>2212.181128500977</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2212.181128500977</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.712458167646</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1249.712458167646</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>1249.712458167646</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>863.9242055694012</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>452.9383007797937</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,13 +4816,13 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143457</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5032,16 +5032,16 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
         <v>1106.569146563073</v>
@@ -5053,7 +5053,7 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7083461157131</v>
+        <v>579.0900014994927</v>
       </c>
       <c r="C13" t="n">
-        <v>492.7083461157131</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D13" t="n">
-        <v>492.7083461157131</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E13" t="n">
-        <v>344.79525253332</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>197.9053050354096</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5202,16 +5202,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230348</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894829</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.3568109459528</v>
+        <v>579.0900014994927</v>
       </c>
     </row>
     <row r="14">
@@ -5257,40 +5257,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.3002584566048</v>
+        <v>679.6423705955727</v>
       </c>
       <c r="C16" t="n">
-        <v>390.3640755286979</v>
+        <v>510.7061876676659</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.55611102446</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.138940987499</v>
+        <v>861.2908354258125</v>
       </c>
       <c r="X16" t="n">
-        <v>961.7413024303746</v>
+        <v>861.2908354258125</v>
       </c>
       <c r="Y16" t="n">
-        <v>740.9487232868445</v>
+        <v>861.2908354258125</v>
       </c>
     </row>
     <row r="17">
@@ -5524,13 +5524,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5545,16 +5545,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,25 +5594,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.3002584566048</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3640755286979</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1799.146555748948</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1577.379940318474</v>
       </c>
       <c r="U19" t="n">
-        <v>1552.184046741</v>
+        <v>1288.277073444117</v>
       </c>
       <c r="V19" t="n">
-        <v>1297.499558535113</v>
+        <v>1033.59258523823</v>
       </c>
       <c r="W19" t="n">
-        <v>1008.082388498152</v>
+        <v>744.1754152012699</v>
       </c>
       <c r="X19" t="n">
-        <v>780.0928376001349</v>
+        <v>744.1754152012699</v>
       </c>
       <c r="Y19" t="n">
-        <v>559.3002584566048</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5752,46 +5752,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5834,7 +5834,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5843,28 +5843,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.1197344942216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104703</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.658977898816</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.241807861855</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.252256963838</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.459677820308</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5992,22 +5992,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867998</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2985.817436667298</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6071,25 +6071,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,7 +6098,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6107,7 +6107,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814701</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.039769608814</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>893.6944659454626</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474453</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039152</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6223,49 +6223,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.4168978689405</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1339.847492740728</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.85794184271</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.0653626991802</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6472,43 +6472,43 @@
         <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>2628.734306600803</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443163</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.1197344942216</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6654,19 +6654,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1580.586352741656</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1325.901864535769</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1325.901864535769</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>1097.912313637752</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>877.1197344942216</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>264.4972173763014</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1768.250487965527</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1546.483872535053</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1257.381005660696</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1002.69651745481</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>713.2793474178488</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>485.2897965198315</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>264.4972173763014</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>481.6968904858347</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C37" t="n">
-        <v>481.6968904858347</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D37" t="n">
-        <v>481.6968904858347</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7140,7 +7140,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.6968904858347</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,13 +7162,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7177,19 +7177,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>932.5990189467745</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1797.117834600129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2330.649739272054</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107237</v>
@@ -7204,22 +7204,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>481.6968904858347</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C40" t="n">
-        <v>481.6968904858347</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D40" t="n">
-        <v>481.6968904858347</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>481.6968904858347</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K41" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7505,7 +7505,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>492.7083461157126</v>
+        <v>492.7083461157131</v>
       </c>
       <c r="C43" t="n">
-        <v>392.5676213586405</v>
+        <v>492.7083461157131</v>
       </c>
       <c r="D43" t="n">
-        <v>242.4509819463048</v>
+        <v>342.5917067033773</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>342.5917067033773</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>195.701759205467</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7572,16 +7572,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7602,7 +7602,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1667.240599230348</v>
       </c>
       <c r="V43" t="n">
         <v>1412.556111024461</v>
@@ -7611,10 +7611,10 @@
         <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>895.1493900894825</v>
+        <v>895.1493900894829</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.3568109459524</v>
+        <v>674.3568109459528</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709.4168978689405</v>
+        <v>528.0379765536123</v>
       </c>
       <c r="C46" t="n">
-        <v>540.4807149410336</v>
+        <v>359.1017936257055</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>359.1017936257055</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>359.1017936257055</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>212.2118461277951</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1883.949150983575</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1629.264662777688</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1339.847492740728</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>1111.85794184271</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y46" t="n">
-        <v>891.0653626991802</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>344.7025836476832</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>344.7025836476846</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>102.8529310510287</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,16 +10120,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>123.4719563470478</v>
+        <v>251.1867816683974</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>317.5146261106144</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>64.70498037788319</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>214.1669605942215</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>49.25147744014606</v>
       </c>
       <c r="X16" t="n">
-        <v>65.92599321748409</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>34.14408407924344</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>105.6429623117157</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.35543628911174</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>130.3466769161725</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>51.55114770987302</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>112.198763982112</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>214.5414662356963</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.3749467384732</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.7612452523648</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445294</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>3.556976973656532</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>130.3466769161725</v>
       </c>
       <c r="E37" t="n">
-        <v>75.60632145146275</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>75.60632145146275</v>
+        <v>140.0538944707216</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.10750358912644</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>66.8864907495264</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>50.54150469642157</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>957440.0089297243</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297243</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="F2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="G2" t="n">
-        <v>456644.0549200306</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="H2" t="n">
         <v>456644.0549200309</v>
@@ -26340,19 +26340,19 @@
         <v>456644.0549200308</v>
       </c>
       <c r="K2" t="n">
+        <v>456644.054920031</v>
+      </c>
+      <c r="L2" t="n">
         <v>456644.0549200308</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>456644.0549200309</v>
-      </c>
-      <c r="M2" t="n">
-        <v>456644.0549200308</v>
       </c>
       <c r="N2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="O2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="P2" t="n">
         <v>456644.0549200308</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.413993407</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="G4" t="n">
-        <v>25090.72367499384</v>
-      </c>
       <c r="H4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499381</v>
@@ -26450,13 +26450,13 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
         <v>25090.72367499382</v>
@@ -26481,28 +26481,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401792.4455337225</v>
+        <v>-401792.4455337224</v>
       </c>
       <c r="C6" t="n">
-        <v>188175.433680822</v>
+        <v>188175.4336808219</v>
       </c>
       <c r="D6" t="n">
-        <v>188175.4336808219</v>
+        <v>188175.4336808221</v>
       </c>
       <c r="E6" t="n">
-        <v>-392879.5559043415</v>
+        <v>-392274.7964923091</v>
       </c>
       <c r="F6" t="n">
-        <v>334497.8580890657</v>
+        <v>335102.6175010977</v>
       </c>
       <c r="G6" t="n">
-        <v>334497.8580890651</v>
+        <v>335102.6175010976</v>
       </c>
       <c r="H6" t="n">
-        <v>334497.8580890655</v>
+        <v>335102.6175010976</v>
       </c>
       <c r="I6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010975</v>
       </c>
       <c r="J6" t="n">
-        <v>158074.6388964724</v>
+        <v>158679.3983085047</v>
       </c>
       <c r="K6" t="n">
-        <v>334497.8580890652</v>
+        <v>335102.6175010977</v>
       </c>
       <c r="L6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010975</v>
       </c>
       <c r="M6" t="n">
-        <v>204855.5432501206</v>
+        <v>205460.3026621529</v>
       </c>
       <c r="N6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010976</v>
       </c>
       <c r="O6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010974</v>
       </c>
       <c r="P6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010977</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.033036376212</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,19 +26986,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>229.8146175812084</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>284.5939820565378</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.7429236410624</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>262.5483146130894</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>2.496509910248449</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594879</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.7163208359958</v>
       </c>
       <c r="G8" t="n">
-        <v>342.7015770153172</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7829238717195</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>897.0044190605947</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>883.6236994779111</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>655.1547664639399</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.306058528246</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,16 +36840,16 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>675.7737917599593</v>
+        <v>803.4886170813089</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>654.7059126660149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
